--- a/biology/Biochimie/Joseph_Needham/Joseph_Needham.xlsx
+++ b/biology/Biochimie/Joseph_Needham/Joseph_Needham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Terence Montgomery Needham (9 décembre 1900 – 24 mars 1995) est un biochimiste et sinologue britannique, qui a acquis une renommée mondiale en menant des recherches sur l'histoire des sciences et des techniques dans la civilisation chinoise[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Terence Montgomery Needham (9 décembre 1900 – 24 mars 1995) est un biochimiste et sinologue britannique, qui a acquis une renommée mondiale en menant des recherches sur l'histoire des sciences et des techniques dans la civilisation chinoise.
 Comptant parmi les pionniers du domaine, il a contribué à la reconnaissance du passé scientifique de la Chine avec, notamment, la publication de la monumentale Science et civilisation en Chine (en), collection encyclopédique qui aborde tous les développements de la science chinoise.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Needham était le fils unique d'une famille écossaise établie à Londres. Son père était docteur en médecine et sa mère Alicia Adélaide Needham, née Montgomery (1863-1945), compositeur et professeur de musique. Needham étudie à l'université de Cambridge, où il reçoit son baccalauréat en 1921, son master en janvier 1925 et son doctorat en octobre de la même année. Après ses études, il travaille au laboratoire de Frederick Gowland Hopkins au Gonville and Caius College de Cambridge, dans le département d'embryologie et de morphogenèse.
 En 1936, trois chercheurs chinois viennent travailler avec Needham, qui est déjà un chercheur très réputé : Lu Gwei-djen (en), (魯桂珍, Lǔ Guìzhēn, 1904-1991), Wang Ying-lai (en), et Chen Shi-chang. Lu, fille d'un pharmacien de Nankin, devient sa maîtresse. Elle lui enseigne la langue et les classiques chinois. Cela suscita l'intérêt de Needham pour le passé technologique et scientifique de la Chine.
@@ -548,16 +562,18 @@
           <t>Sensibilité politique de Needham</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Needham, chrétien socialiste, cultivait de profondes sympathies avec le communisme sans toutefois jamais avoir été membre du parti. Sa visite à Moscou en 1935 le renforce dans ses convictions idéologiques. Il réclame le boycott anglais des Jeux olympiques de Berlin et devient le supporter de la cause républicaine en Espagne[2].
-En pleine Guerre froide et alors que la guerre de Corée bat son plein, il se joint en 1952 à une mission d'enquête du gouvernement chinois, financée par les Russes, sur l'utilisation par les Américains d'armes bactériologiques en Corée et en Manchourie[3]. Selon Simon Winchester, un de ses biographes, Needham fut manipulé par les agents communistes qui placèrent de fausses preuves et trafiquèrent les résultats des analyses[4],[5]. Son scepticisme, dont il fait part à son épouse dans une lettre où il évoque un sentiment de « mise en scène », fut balayé par sa trop grande confiance envers la soixantaine d'experts travaillant sur le projet, près de la moitié d'entre eux ayant étudié dans des universités occidentales prestigieuses. Placé sur liste noire par la CIA, il devient alors, en cette période marquée par le maccarthysme, persona non grata aux États-Unis, et ce, pendant une vingtaine d'années. Il est momentanément isolé au sein de sa propre université. Sa réhabilitation aux États-Unis vient lentement, à partir d'août 1954, avec les parutions successives des volumes de son œuvre monumentale Science and Civilisation in China[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Needham, chrétien socialiste, cultivait de profondes sympathies avec le communisme sans toutefois jamais avoir été membre du parti. Sa visite à Moscou en 1935 le renforce dans ses convictions idéologiques. Il réclame le boycott anglais des Jeux olympiques de Berlin et devient le supporter de la cause républicaine en Espagne.
+En pleine Guerre froide et alors que la guerre de Corée bat son plein, il se joint en 1952 à une mission d'enquête du gouvernement chinois, financée par les Russes, sur l'utilisation par les Américains d'armes bactériologiques en Corée et en Manchourie. Selon Simon Winchester, un de ses biographes, Needham fut manipulé par les agents communistes qui placèrent de fausses preuves et trafiquèrent les résultats des analyses,. Son scepticisme, dont il fait part à son épouse dans une lettre où il évoque un sentiment de « mise en scène », fut balayé par sa trop grande confiance envers la soixantaine d'experts travaillant sur le projet, près de la moitié d'entre eux ayant étudié dans des universités occidentales prestigieuses. Placé sur liste noire par la CIA, il devient alors, en cette période marquée par le maccarthysme, persona non grata aux États-Unis, et ce, pendant une vingtaine d'années. Il est momentanément isolé au sein de sa propre université. Sa réhabilitation aux États-Unis vient lentement, à partir d'août 1954, avec les parutions successives des volumes de son œuvre monumentale Science and Civilisation in China,.
 Ses idées d'homme de gauche ne furent pas entamées pour autant. Ainsi, il apporte son soutien aux mouvements étudiants de 1968.
-De retour en Chine en 1972, il est consterné par la situation et notamment par la « disparition » de certains de ses anciens collègues. Si son amour pour la Chine demeure intact, il commence en revanche à questionner les bienfaits du régime [8].
-En 1974, lors d'un passage en France, il est invité à une table ronde au sujet de la Chine. Ainsi que le souligne Jean-Marc Lévy-Leblond, « La fascination qu'exerçait alors la Chine maoïste conféra un vif intérêt à sa venue ». Contrastant avec les autres participants qui débordaient d'enthousiasme sur la situation en Chine, « avec une réserve et une ironie toutes britanniques, (Needham) se garda d'entrer dans ces dithyrambes et exposa avec concision une synthèse de ses travaux sur les très anciennes traditions scientifiques et techniques chinoises, le rapport entre ces innovations, et la « révolution scientifique » européenne du XVIIe siècle, pour conclure en posant, sans y répondre, ce qu'il appela lui-même la « question à cent francs » : pourquoi la Chine, avec sa considérable avance sur l'Europe jusqu'à la Renaissance, n'a-t-elle pas été le théâtre de cette révolution ? »[9]
-Dans son livre Histoire de Tel Quel 1960-1982, Philippe Forest revient sur les égarements des admirateurs naïfs de la Chine, et des espérances formidables que le mouvement de Mao avait pu soulever auprès d'intellectuels de tous pays. À leur décharge, il cite la puissance de rêve que ce pays avait pu soulever : « Certes, avec d'autres, au nombre desquels de prestigieux savants comme Joseph Needham, les telqueliens crurent que la Chine serait à notre temps ce que la Grèce fut à la Renaissance : un continent ignoré surgirait qui bouleverserait de fond en comble le savoir et la pensée de l’Occident. Comment pourrait-on reprocher à quiconque d'avoir fait ce rêve ? »[10].
-Forest reprend ici une formulation que le « telquelien » d'alors Philippe Sollers avait attribuée à Needham : « D'autre part il y a eu la grande découverte vers les années 66-67 (...) des travaux de Joseph Needham, qui a fait ce merveilleux travail encyclopédique qui s'appelle Science et Civilisation en Chine. Et à ce moment-là s'est révélé à nos yeux quelque chose d'absolument inédit, car il nous a semblé que c'était l'aube d'une sorte de référence nouvelle dans le savoir. Needham pensait – il nous le dit – que "désormais l'entrée de la Chine dans l'histoire du savoir allait jouer un rôle absolument comparable à la référence grecque pour les gens de la Renaissance occidentale" »[11].
-En 1978, peu après la mort de Mao, il brise les rangs et, dans la revue Nature, qualifie de « désastreuses » les politiques menées par Mao dans le domaine de la science[12].
+De retour en Chine en 1972, il est consterné par la situation et notamment par la « disparition » de certains de ses anciens collègues. Si son amour pour la Chine demeure intact, il commence en revanche à questionner les bienfaits du régime .
+En 1974, lors d'un passage en France, il est invité à une table ronde au sujet de la Chine. Ainsi que le souligne Jean-Marc Lévy-Leblond, « La fascination qu'exerçait alors la Chine maoïste conféra un vif intérêt à sa venue ». Contrastant avec les autres participants qui débordaient d'enthousiasme sur la situation en Chine, « avec une réserve et une ironie toutes britanniques, (Needham) se garda d'entrer dans ces dithyrambes et exposa avec concision une synthèse de ses travaux sur les très anciennes traditions scientifiques et techniques chinoises, le rapport entre ces innovations, et la « révolution scientifique » européenne du XVIIe siècle, pour conclure en posant, sans y répondre, ce qu'il appela lui-même la « question à cent francs » : pourquoi la Chine, avec sa considérable avance sur l'Europe jusqu'à la Renaissance, n'a-t-elle pas été le théâtre de cette révolution ? »
+Dans son livre Histoire de Tel Quel 1960-1982, Philippe Forest revient sur les égarements des admirateurs naïfs de la Chine, et des espérances formidables que le mouvement de Mao avait pu soulever auprès d'intellectuels de tous pays. À leur décharge, il cite la puissance de rêve que ce pays avait pu soulever : « Certes, avec d'autres, au nombre desquels de prestigieux savants comme Joseph Needham, les telqueliens crurent que la Chine serait à notre temps ce que la Grèce fut à la Renaissance : un continent ignoré surgirait qui bouleverserait de fond en comble le savoir et la pensée de l’Occident. Comment pourrait-on reprocher à quiconque d'avoir fait ce rêve ? ».
+Forest reprend ici une formulation que le « telquelien » d'alors Philippe Sollers avait attribuée à Needham : « D'autre part il y a eu la grande découverte vers les années 66-67 (...) des travaux de Joseph Needham, qui a fait ce merveilleux travail encyclopédique qui s'appelle Science et Civilisation en Chine. Et à ce moment-là s'est révélé à nos yeux quelque chose d'absolument inédit, car il nous a semblé que c'était l'aube d'une sorte de référence nouvelle dans le savoir. Needham pensait – il nous le dit – que "désormais l'entrée de la Chine dans l'histoire du savoir allait jouer un rôle absolument comparable à la référence grecque pour les gens de la Renaissance occidentale" ».
+En 1978, peu après la mort de Mao, il brise les rangs et, dans la revue Nature, qualifie de « désastreuses » les politiques menées par Mao dans le domaine de la science.
 </t>
         </is>
       </c>
@@ -588,13 +604,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication en français
-La Science chinoise et l'Occident, Seuil, Paris, 1ère édition en 1973, 1977  (ISBN 2020046563)
+          <t>Publication en français</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Science chinoise et l'Occident, Seuil, Paris, 1ère édition en 1973, 1977  (ISBN 2020046563)
 La tradition scientifique chinoise, Hermann, 1974
 Un taoïste d'honneur. Autobiographie, Le Félin, 1980,  (ISBN 2866451023)
-Dialogue des civilisations Chine-Occident, La Découverte, 1996
-Publication en anglais
-Science, Religion and Reality (1925)
+Dialogue des civilisations Chine-Occident, La Découverte, 1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Joseph_Needham</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph_Needham</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Écrits</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication en anglais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Science, Religion and Reality (1925)
 Chemical Embryology (1931)
 The Great Amphibium: Four Lectures on the Position of Religion in a World Dominated by Science (1931)
 Perspectives in Biochemistry: Thirty-One Essays Presented to Sir Frederick Gowland Hopkins by Past and Present Members of His Laboratory (1937)
@@ -602,20 +657,20 @@
 Chinese Science (1945)
 History Is On Our Side (1947)
 Science Outpost; Papers of the Sino-British Science Co-Operation Office (British Council Scientific Office in China) 1942-1946 (1948)
-Science and Civilisation in China (1954, etc) - 25 volumes à ce jour [1]
-vol. 1 : Introductory Orientations, 1954, 318 p. [2]
-vol. 2 : History of scientific thought, 1956, 697 p. [3]
-vol. 3 : Mathematics and the Sciences of the Heaven and the Earth, 1959 [4]
-vol. 4.1 : Physics, 1962 [5]
+Science and Civilisation in China (1954, etc) - 25 volumes à ce jour 
+vol. 1 : Introductory Orientations, 1954, 318 p. 
+vol. 2 : History of scientific thought, 1956, 697 p. 
+vol. 3 : Mathematics and the Sciences of the Heaven and the Earth, 1959 
+vol. 4.1 : Physics, 1962 
 vol. 4.2 : Mechanical Engineering, 1965
-vol. 4.3 : Civil Engineering and Nautics, 1971 [6]
-vol. 5.1 : Paper and Printing, 1985 [7]
-vol. 5.2 : Spagyrical Discovery and Invention: Magisteries of Gold and Immortality, 1974 [8]
+vol. 4.3 : Civil Engineering and Nautics, 1971 
+vol. 5.1 : Paper and Printing, 1985 
+vol. 5.2 : Spagyrical Discovery and Invention: Magisteries of Gold and Immortality, 1974 
 vol. 5.3 : id. : Historical Survey, from Cinnabar Elixirs to Synthetic Insulin, 1976, 516 p.
 vol. 5.4 : id. : Apparitus and Theory, 1980
-vol. 5.5. : id. : Physiological Alchemy, 1983, 574 p. [9]
+vol. 5.5. : id. : Physiological Alchemy, 1983, 574 p. 
 vol. 5.6 : Military Technology: Missiles and Sieges, 1994
-vol. 5.7 : id., The Gunpowder Epic, 1986 [10]
+vol. 5.7 : id., The Gunpowder Epic, 1986 
 vol. 5.8 : id., Shock Weapons and Cavalry, 1986
 vol. 5.9 : Textile Technology: Spinning and Reeling
 vol. 5.10
@@ -627,7 +682,7 @@
 vol. 6.3 : Agroindustries and Forestry, 1996
 vol. 6.4 : Biologyb and Biological Technologies: Traditional Botany'
 vol. 6.5 : Fermentations and Food Science
-vol. 6.6 : Medicine, 2000 [11]
+vol. 6.6 : Medicine, 2000 
 vol. 7.1 : Language and Logic, 1998
 vol. 7.2 : General Conclusions and Reflections, 2004.
 Science and Civilization in China, by Joseph Needham, with the research assistance [and collaboration] of Wang Ling (1954-59) (2 volumes)
@@ -645,31 +700,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Joseph_Needham</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Biochimie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Joseph_Needham</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Royal Society (1941)
 Master of Gonville and Caius College (Cambridge) (1966)
